--- a/input/DANE/1962.xlsx
+++ b/input/DANE/1962.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josetavera/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97535DF8-6161-0740-94F5-3DD8ED961A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80D1F81A-21AB-9840-88B5-C444D4261352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="26740" windowHeight="13780" xr2:uid="{4D828F41-64BC-9046-A279-3C2E1C320B51}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="497">
   <si>
     <t>Oficina</t>
   </si>
@@ -1425,9 +1425,6 @@
     <t>Trujillo</t>
   </si>
   <si>
-    <t>145 0</t>
-  </si>
-  <si>
     <t>1,718.468</t>
   </si>
   <si>
@@ -1455,9 +1452,6 @@
     <t>Caqueta</t>
   </si>
   <si>
-    <t>1 ,092</t>
-  </si>
-  <si>
     <t>Belén de los Andaqufes</t>
   </si>
   <si>
@@ -1528,6 +1522,9 @@
   </si>
   <si>
     <t>Vichada</t>
+  </si>
+  <si>
+    <t>1 092</t>
   </si>
 </sst>
 </file>
@@ -1581,13 +1578,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1904,8 +1902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE31E67-A694-7C42-91FC-34FB6C04DCBD}">
   <dimension ref="A1:J999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A309" workbookViewId="0">
+      <selection activeCell="H328" sqref="H328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1913,6 +1911,9 @@
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -2694,7 +2695,7 @@
         <v>155</v>
       </c>
       <c r="D25" s="2">
-        <v>380.02</v>
+        <v>380020</v>
       </c>
       <c r="E25" s="2">
         <v>256</v>
@@ -2854,7 +2855,7 @@
         <v>360</v>
       </c>
       <c r="D30" s="2">
-        <v>429.28</v>
+        <v>429280</v>
       </c>
       <c r="E30" s="2">
         <v>57</v>
@@ -2866,7 +2867,7 @@
         <v>40</v>
       </c>
       <c r="H30" s="2">
-        <v>58.05</v>
+        <v>58050</v>
       </c>
       <c r="I30" s="2">
         <v>457</v>
@@ -3426,8 +3427,8 @@
       <c r="B48" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C48" s="2">
-        <v>1.216</v>
+      <c r="C48" s="6">
+        <v>1216</v>
       </c>
       <c r="D48" s="3">
         <v>4492971</v>
@@ -3523,7 +3524,7 @@
         <v>25</v>
       </c>
       <c r="C51" s="2">
-        <v>1.4179999999999999</v>
+        <v>1418</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>69</v>
@@ -3555,7 +3556,7 @@
         <v>25</v>
       </c>
       <c r="C52" s="2">
-        <v>1.2889999999999999</v>
+        <v>1289</v>
       </c>
       <c r="D52" s="3">
         <v>2545064</v>
@@ -3627,8 +3628,8 @@
       <c r="E54" s="2">
         <v>362</v>
       </c>
-      <c r="F54" s="4">
-        <v>2680.29</v>
+      <c r="F54" s="6">
+        <v>2680290</v>
       </c>
       <c r="G54" s="2">
         <v>94</v>
@@ -3942,7 +3943,7 @@
         <v>258</v>
       </c>
       <c r="D64" s="2">
-        <v>296.08999999999997</v>
+        <v>296090</v>
       </c>
       <c r="E64" s="2">
         <v>156</v>
@@ -4035,7 +4036,7 @@
         <v>25</v>
       </c>
       <c r="C67" s="2">
-        <v>1.351</v>
+        <v>1351</v>
       </c>
       <c r="D67" s="3">
         <v>2307003</v>
@@ -4053,7 +4054,7 @@
         <v>334965</v>
       </c>
       <c r="I67" s="2">
-        <v>1.899</v>
+        <v>1899</v>
       </c>
       <c r="J67" s="3">
         <v>7894126</v>
@@ -4483,7 +4484,7 @@
         <v>91</v>
       </c>
       <c r="C81" s="2">
-        <v>1.2470000000000001</v>
+        <v>1247</v>
       </c>
       <c r="D81" s="3">
         <v>1514475</v>
@@ -5059,7 +5060,7 @@
         <v>91</v>
       </c>
       <c r="C99" s="2">
-        <v>2.9929999999999999</v>
+        <v>2993</v>
       </c>
       <c r="D99" s="3">
         <v>3651705</v>
@@ -5123,7 +5124,7 @@
         <v>91</v>
       </c>
       <c r="C101" s="2">
-        <v>1.302</v>
+        <v>1302</v>
       </c>
       <c r="D101" s="3">
         <v>2314326</v>
@@ -5301,7 +5302,7 @@
         <v>486520</v>
       </c>
       <c r="I106" s="2">
-        <v>86</v>
+        <v>1086</v>
       </c>
       <c r="J106" s="3">
         <v>2908315</v>
@@ -5527,8 +5528,8 @@
       <c r="I113" s="2">
         <v>560</v>
       </c>
-      <c r="J113" s="4">
-        <v>1977.1</v>
+      <c r="J113" s="6">
+        <v>1977100</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
@@ -5656,7 +5657,7 @@
         <v>275</v>
       </c>
       <c r="J117" s="2">
-        <v>890.39</v>
+        <v>890390</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
@@ -6150,7 +6151,7 @@
         <v>134</v>
       </c>
       <c r="D133" s="2">
-        <v>406.27</v>
+        <v>406270</v>
       </c>
       <c r="E133" s="2">
         <v>29</v>
@@ -6450,7 +6451,7 @@
         <v>50</v>
       </c>
       <c r="H142" s="2">
-        <v>208.21</v>
+        <v>208210</v>
       </c>
       <c r="I142" s="2">
         <v>323</v>
@@ -6482,7 +6483,7 @@
         <v>3</v>
       </c>
       <c r="H143" s="2">
-        <v>7.1</v>
+        <v>7100</v>
       </c>
       <c r="I143" s="2">
         <v>649</v>
@@ -6531,10 +6532,10 @@
         <v>176</v>
       </c>
       <c r="C145" s="2">
-        <v>1.135</v>
-      </c>
-      <c r="D145" s="4">
-        <v>1028.8150000000001</v>
+        <v>1135</v>
+      </c>
+      <c r="D145" s="6">
+        <v>1028815</v>
       </c>
       <c r="E145" s="2">
         <v>262</v>
@@ -6775,8 +6776,8 @@
       <c r="I152" s="2">
         <v>685</v>
       </c>
-      <c r="J152" s="4">
-        <v>2558.64</v>
+      <c r="J152" s="6">
+        <v>2558640</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
@@ -6837,7 +6838,7 @@
         <v>271028</v>
       </c>
       <c r="I154" s="2">
-        <v>2.08</v>
+        <v>2080</v>
       </c>
       <c r="J154" s="3">
         <v>8458284</v>
@@ -7011,7 +7012,7 @@
         <v>195</v>
       </c>
       <c r="C160" s="2">
-        <v>1.087</v>
+        <v>1087</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>213</v>
@@ -7075,7 +7076,7 @@
         <v>195</v>
       </c>
       <c r="C162" s="2">
-        <v>1.4350000000000001</v>
+        <v>1435</v>
       </c>
       <c r="D162" s="3">
         <v>2899683</v>
@@ -7331,7 +7332,7 @@
         <v>218</v>
       </c>
       <c r="C170" s="2">
-        <v>1.2090000000000001</v>
+        <v>1209</v>
       </c>
       <c r="D170" s="3">
         <v>2575440</v>
@@ -7461,8 +7462,8 @@
       <c r="C174" s="2">
         <v>924</v>
       </c>
-      <c r="D174" s="4">
-        <v>1877.19</v>
+      <c r="D174" s="6">
+        <v>1877190</v>
       </c>
       <c r="E174" s="2">
         <v>554</v>
@@ -7523,7 +7524,7 @@
         <v>218</v>
       </c>
       <c r="C176" s="2">
-        <v>1.2490000000000001</v>
+        <v>1249</v>
       </c>
       <c r="D176" s="3">
         <v>1738279</v>
@@ -8055,8 +8056,8 @@
       <c r="I192" s="2">
         <v>630</v>
       </c>
-      <c r="J192" s="4">
-        <v>1452.54</v>
+      <c r="J192" s="6">
+        <v>1452540</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.2">
@@ -8709,8 +8710,8 @@
       <c r="C213" s="2">
         <v>301</v>
       </c>
-      <c r="D213" s="4">
-        <v>1656.34</v>
+      <c r="D213" s="6">
+        <v>1656340</v>
       </c>
       <c r="E213" s="2">
         <v>158</v>
@@ -8727,8 +8728,8 @@
       <c r="I213" s="2">
         <v>506</v>
       </c>
-      <c r="J213" s="4">
-        <v>3080.63</v>
+      <c r="J213" s="6">
+        <v>3080630</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.2">
@@ -9205,7 +9206,7 @@
         <v>240872</v>
       </c>
       <c r="I228" s="2">
-        <v>1.02</v>
+        <v>1020</v>
       </c>
       <c r="J228" s="4">
         <v>7889.8090000000002</v>
@@ -9670,7 +9671,7 @@
         <v>127</v>
       </c>
       <c r="D243" s="2">
-        <v>227.25</v>
+        <v>227250</v>
       </c>
       <c r="E243" s="2">
         <v>237</v>
@@ -10787,7 +10788,7 @@
         <v>192</v>
       </c>
       <c r="C278" s="2">
-        <v>1.825</v>
+        <v>1825</v>
       </c>
       <c r="D278" s="3">
         <v>9520301</v>
@@ -11107,7 +11108,7 @@
         <v>192</v>
       </c>
       <c r="C288" s="2">
-        <v>1.889</v>
+        <v>1889</v>
       </c>
       <c r="D288" s="3">
         <v>2043866</v>
@@ -11698,7 +11699,7 @@
         <v>35</v>
       </c>
       <c r="H306" s="2">
-        <v>160.91999999999999</v>
+        <v>160920</v>
       </c>
       <c r="I306" s="2">
         <v>373</v>
@@ -11971,7 +11972,7 @@
         <v>404</v>
       </c>
       <c r="C315" s="2">
-        <v>1.605</v>
+        <v>1605</v>
       </c>
       <c r="D315" s="3">
         <v>3405280</v>
@@ -12131,7 +12132,7 @@
         <v>404</v>
       </c>
       <c r="C320" s="2">
-        <v>1.861</v>
+        <v>1861</v>
       </c>
       <c r="D320" s="3">
         <v>3579117</v>
@@ -12309,7 +12310,7 @@
         <v>1430.3209999999999</v>
       </c>
       <c r="I325" s="2">
-        <v>1.86</v>
+        <v>1860</v>
       </c>
       <c r="J325" s="3">
         <v>5440516</v>
@@ -12389,8 +12390,8 @@
       <c r="C328" s="2">
         <v>648</v>
       </c>
-      <c r="D328" s="4">
-        <v>1843.33</v>
+      <c r="D328" s="6">
+        <v>1843330</v>
       </c>
       <c r="E328" s="2">
         <v>221</v>
@@ -13256,8 +13257,8 @@
       <c r="D355" s="3">
         <v>719688</v>
       </c>
-      <c r="E355" s="2" t="s">
-        <v>463</v>
+      <c r="E355" s="2">
+        <v>145</v>
       </c>
       <c r="F355" s="3">
         <v>562430</v>
@@ -13272,12 +13273,12 @@
         <v>425</v>
       </c>
       <c r="J355" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A356" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>443</v>
@@ -13303,13 +13304,13 @@
       <c r="I356" s="2">
         <v>761</v>
       </c>
-      <c r="J356" s="4">
-        <v>1717.91</v>
+      <c r="J356" s="6">
+        <v>1717910</v>
       </c>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A357" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>443</v>
@@ -13341,10 +13342,10 @@
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A358" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C358" s="2">
         <v>71</v>
@@ -13373,10 +13374,10 @@
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C359" s="2">
         <v>9</v>
@@ -13405,10 +13406,10 @@
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A360" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C360" s="2">
         <v>198</v>
@@ -13420,7 +13421,7 @@
         <v>609</v>
       </c>
       <c r="F360" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G360" s="2">
         <v>4</v>
@@ -13437,19 +13438,19 @@
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A361" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B361" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="B361" s="2" t="s">
-        <v>472</v>
-      </c>
       <c r="C361" s="2">
-        <v>1.92</v>
+        <v>1920</v>
       </c>
       <c r="D361" s="3">
         <v>3096903</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>473</v>
+        <v>496</v>
       </c>
       <c r="F361" s="4">
         <v>5261.3419999999996</v>
@@ -13469,10 +13470,10 @@
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A362" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C362" s="2">
         <v>757</v>
@@ -13501,10 +13502,10 @@
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A363" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C363" s="2">
         <v>406</v>
@@ -13533,10 +13534,10 @@
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A364" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C364" s="2">
         <v>393</v>
@@ -13565,10 +13566,10 @@
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A365" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C365" s="2">
         <v>325</v>
@@ -13597,10 +13598,10 @@
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A366" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C366" s="2">
         <v>297</v>
@@ -13629,10 +13630,10 @@
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A367" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C367" s="2">
         <v>310</v>
@@ -13661,10 +13662,10 @@
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A368" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C368" s="2">
         <v>406</v>
@@ -13693,16 +13694,16 @@
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A369" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C369" s="2">
         <v>529</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E369" s="2">
         <v>472</v>
@@ -13725,16 +13726,16 @@
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A370" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C370" s="2">
         <v>692</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E370" s="2">
         <v>317</v>
@@ -13760,7 +13761,7 @@
         <v>392</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C371" s="2">
         <v>87</v>
@@ -13789,10 +13790,10 @@
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A372" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C372" s="2">
         <v>141</v>
@@ -13821,10 +13822,10 @@
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A373" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C373" s="2">
         <v>191</v>
@@ -13853,10 +13854,10 @@
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A374" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C374" s="2">
         <v>96</v>
@@ -13885,10 +13886,10 @@
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A375" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C375" s="2">
         <v>159</v>
@@ -13912,15 +13913,15 @@
         <v>594</v>
       </c>
       <c r="J375" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A376" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C376" s="2">
         <v>42</v>
@@ -13949,10 +13950,10 @@
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A377" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C377" s="2">
         <v>32</v>

--- a/input/DANE/1962.xlsx
+++ b/input/DANE/1962.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josetavera/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80D1F81A-21AB-9840-88B5-C444D4261352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{682C8E0E-36EB-CB40-9EDA-0E4F60C8FFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="26740" windowHeight="13780" xr2:uid="{4D828F41-64BC-9046-A279-3C2E1C320B51}"/>
   </bookViews>
@@ -129,9 +129,6 @@
     <t>1,058.999</t>
   </si>
   <si>
-    <t>Chigorod6</t>
-  </si>
-  <si>
     <t>1,024.671</t>
   </si>
   <si>
@@ -168,9 +165,6 @@
     <t>Nariño.:</t>
   </si>
   <si>
-    <t>.Puerto Berrfo</t>
-  </si>
-  <si>
     <t>Remedios</t>
   </si>
   <si>
@@ -189,9 +183,6 @@
     <t>San Carlos</t>
   </si>
   <si>
-    <t>San Roque ..</t>
-  </si>
-  <si>
     <t>Santa Bárbara</t>
   </si>
   <si>
@@ -270,15 +261,9 @@
     <t>2,811,938</t>
   </si>
   <si>
-    <t>Ovejae</t>
-  </si>
-  <si>
     <t>San Jacinto</t>
   </si>
   <si>
-    <t>San Juan Ne pomuceno</t>
-  </si>
-  <si>
     <t>San Marcoe</t>
   </si>
   <si>
@@ -366,9 +351,6 @@
     <t>Nunchía</t>
   </si>
   <si>
-    <t>Orocal</t>
-  </si>
-  <si>
     <t>Paipa</t>
   </si>
   <si>
@@ -390,12 +372,6 @@
     <t>1,382.563</t>
   </si>
   <si>
-    <t>Puorto Boya ca</t>
-  </si>
-  <si>
-    <t>Ramiriquf</t>
-  </si>
-  <si>
     <t>Saboyá</t>
   </si>
   <si>
@@ -447,9 +423,6 @@
     <t>1,027.150</t>
   </si>
   <si>
-    <t>A pla</t>
-  </si>
-  <si>
     <t>Aranzazu</t>
   </si>
   <si>
@@ -459,27 +432,15 @@
     <t>I.468</t>
   </si>
   <si>
-    <t>Bolalcazar...</t>
-  </si>
-  <si>
-    <t>Belén de Umbrfa</t>
-  </si>
-  <si>
     <t>Calarcá</t>
   </si>
   <si>
-    <t>Chinchind</t>
-  </si>
-  <si>
     <t>Filandia</t>
   </si>
   <si>
     <t>Génova</t>
   </si>
   <si>
-    <t>La Dorada .</t>
-  </si>
-  <si>
     <t>2,145.744</t>
   </si>
   <si>
@@ -534,9 +495,6 @@
     <t>2,060,392</t>
   </si>
   <si>
-    <t>Quinchfa</t>
-  </si>
-  <si>
     <t>Riosucio,</t>
   </si>
   <si>
@@ -552,9 +510,6 @@
     <t>2,485,806</t>
   </si>
   <si>
-    <t>Samana . . . . .</t>
-  </si>
-  <si>
     <t>Santa Rosa de Cabal</t>
   </si>
   <si>
@@ -573,9 +528,6 @@
     <t>Almaguer</t>
   </si>
   <si>
-    <t>Bolivar..</t>
-  </si>
-  <si>
     <t>Caloto</t>
   </si>
   <si>
@@ -597,9 +549,6 @@
     <t>1,057.116</t>
   </si>
   <si>
-    <t>Pãez</t>
-  </si>
-  <si>
     <t>Patía.</t>
   </si>
   <si>
@@ -636,9 +585,6 @@
     <t>Cienaga de Oro</t>
   </si>
   <si>
-    <t>ChinG</t>
-  </si>
-  <si>
     <t>1,109.622</t>
   </si>
   <si>
@@ -678,9 +624,6 @@
     <t>1,948.364</t>
   </si>
   <si>
-    <t>San Pelayo.,</t>
-  </si>
-  <si>
     <t>2,031.870</t>
   </si>
   <si>
@@ -696,9 +639,6 @@
     <t>Anolaima</t>
   </si>
   <si>
-    <t>Arbelãez</t>
-  </si>
-  <si>
     <t>Cabrera.</t>
   </si>
   <si>
@@ -738,9 +678,6 @@
     <t>Fusagasugá</t>
   </si>
   <si>
-    <t>Gachals</t>
-  </si>
-  <si>
     <t>Gacheta</t>
   </si>
   <si>
@@ -819,18 +756,9 @@
     <t>Sasaima</t>
   </si>
   <si>
-    <t>Soa cha</t>
-  </si>
-  <si>
     <t>1,059.162</t>
   </si>
   <si>
-    <t>Sop</t>
-  </si>
-  <si>
-    <t>Suba choque</t>
-  </si>
-  <si>
     <t>1,600,390</t>
   </si>
   <si>
@@ -900,9 +828,6 @@
     <t>1,931.740</t>
   </si>
   <si>
-    <t>Campo Alegre</t>
-  </si>
-  <si>
     <t>Carnicerías..</t>
   </si>
   <si>
@@ -915,9 +840,6 @@
     <t>Guadalupe.</t>
   </si>
   <si>
-    <t>Lo Plata ..</t>
-  </si>
-  <si>
     <t>Palermo.</t>
   </si>
   <si>
@@ -951,9 +873,6 @@
     <t>Magdalena</t>
   </si>
   <si>
-    <t>A guachi ca</t>
-  </si>
-  <si>
     <t>Ciénaga</t>
   </si>
   <si>
@@ -984,9 +903,6 @@
     <t>Pivijay</t>
   </si>
   <si>
-    <t>Plato ..</t>
-  </si>
-  <si>
     <t>Robles</t>
   </si>
   <si>
@@ -996,9 +912,6 @@
     <t>Tamalameque</t>
   </si>
   <si>
-    <t>Velledupar</t>
-  </si>
-  <si>
     <t>Villavicencio.</t>
   </si>
   <si>
@@ -1020,9 +933,6 @@
     <t>Cumaral..</t>
   </si>
   <si>
-    <t>Puerto L6pez</t>
-  </si>
-  <si>
     <t>1,129,253</t>
   </si>
   <si>
@@ -1062,9 +972,6 @@
     <t>Guaitarilla</t>
   </si>
   <si>
-    <t>Ipialea.</t>
-  </si>
-  <si>
     <t>3,787.269</t>
   </si>
   <si>
@@ -1134,9 +1041,6 @@
     <t>Pamplona.</t>
   </si>
   <si>
-    <t>Salazar de las Palmat</t>
-  </si>
-  <si>
     <t>Sardinata</t>
   </si>
   <si>
@@ -1170,9 +1074,6 @@
     <t>Gambita</t>
   </si>
   <si>
-    <t>Guopsa</t>
-  </si>
-  <si>
     <t>Lebrija</t>
   </si>
   <si>
@@ -1236,9 +1137,6 @@
     <t>Tona</t>
   </si>
   <si>
-    <t>Véloz</t>
-  </si>
-  <si>
     <t>Zapatoca..</t>
   </si>
   <si>
@@ -1281,9 +1179,6 @@
     <t>Dolores</t>
   </si>
   <si>
-    <t>Es pinal</t>
-  </si>
-  <si>
     <t>4,805.102</t>
   </si>
   <si>
@@ -1293,9 +1188,6 @@
     <t>Fresno</t>
   </si>
   <si>
-    <t>Guamo</t>
-  </si>
-  <si>
     <t>Herveo</t>
   </si>
   <si>
@@ -1347,9 +1239,6 @@
     <t>1,972.193</t>
   </si>
   <si>
-    <t>San Lui 8</t>
-  </si>
-  <si>
     <t>Santa Isabel.</t>
   </si>
   <si>
@@ -1359,9 +1248,6 @@
     <t>Villahermosa</t>
   </si>
   <si>
-    <t>Villarrica</t>
-  </si>
-  <si>
     <t>Cali</t>
   </si>
   <si>
@@ -1392,12 +1278,6 @@
     <t>El Aguila</t>
   </si>
   <si>
-    <t>EI Cairo..</t>
-  </si>
-  <si>
-    <t>El Cerrito</t>
-  </si>
-  <si>
     <t>1,324,734</t>
   </si>
   <si>
@@ -1512,9 +1392,6 @@
     <t>1,841.677</t>
   </si>
   <si>
-    <t>Mitû</t>
-  </si>
-  <si>
     <t>Vaupes</t>
   </si>
   <si>
@@ -1525,6 +1402,129 @@
   </si>
   <si>
     <t>1 092</t>
+  </si>
+  <si>
+    <t>Chigorodo</t>
+  </si>
+  <si>
+    <t>Puerto Berrio</t>
+  </si>
+  <si>
+    <t>San Roque</t>
+  </si>
+  <si>
+    <t>Ovejas</t>
+  </si>
+  <si>
+    <t>San Juan Nepomuceno</t>
+  </si>
+  <si>
+    <t>Orocue</t>
+  </si>
+  <si>
+    <t>Puerto Boyaca</t>
+  </si>
+  <si>
+    <t>Ramiriqui</t>
+  </si>
+  <si>
+    <t>Apia</t>
+  </si>
+  <si>
+    <t>Belalcazar</t>
+  </si>
+  <si>
+    <t>Belén de Umbria</t>
+  </si>
+  <si>
+    <t>Chinchina</t>
+  </si>
+  <si>
+    <t>La Dorada</t>
+  </si>
+  <si>
+    <t>Quinchia</t>
+  </si>
+  <si>
+    <t>Samana</t>
+  </si>
+  <si>
+    <t>Paez</t>
+  </si>
+  <si>
+    <t>Chinu</t>
+  </si>
+  <si>
+    <t>San Bernardo del Viento</t>
+  </si>
+  <si>
+    <t>San Pelayo</t>
+  </si>
+  <si>
+    <t>Arbelaez</t>
+  </si>
+  <si>
+    <t>Gachala</t>
+  </si>
+  <si>
+    <t>Soacha</t>
+  </si>
+  <si>
+    <t>Sopo</t>
+  </si>
+  <si>
+    <t>Subachoque</t>
+  </si>
+  <si>
+    <t>CampoAlegre</t>
+  </si>
+  <si>
+    <t>Aguachica</t>
+  </si>
+  <si>
+    <t>Plato</t>
+  </si>
+  <si>
+    <t>Puerto Lopez</t>
+  </si>
+  <si>
+    <t>Ipiales</t>
+  </si>
+  <si>
+    <t>Salazar</t>
+  </si>
+  <si>
+    <t>Espinal</t>
+  </si>
+  <si>
+    <t>Vélez</t>
+  </si>
+  <si>
+    <t>El Guamo</t>
+  </si>
+  <si>
+    <t>San Luis</t>
+  </si>
+  <si>
+    <t>Villarica</t>
+  </si>
+  <si>
+    <t>Cerrito</t>
+  </si>
+  <si>
+    <t>El Cairo</t>
+  </si>
+  <si>
+    <t>Mitu</t>
+  </si>
+  <si>
+    <t>Güepsa</t>
+  </si>
+  <si>
+    <t>Valledupar</t>
+  </si>
+  <si>
+    <t>La Plata</t>
   </si>
 </sst>
 </file>
@@ -1902,8 +1902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE31E67-A694-7C42-91FC-34FB6C04DCBD}">
   <dimension ref="A1:J999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A309" workbookViewId="0">
-      <selection activeCell="H328" sqref="H328"/>
+    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="A218" sqref="A218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2494,7 +2494,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>11</v>
@@ -2509,7 +2509,7 @@
         <v>356</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G19" s="2">
         <v>4</v>
@@ -2526,7 +2526,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>11</v>
@@ -2558,7 +2558,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>11</v>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>11</v>
@@ -2622,7 +2622,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>11</v>
@@ -2654,7 +2654,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>11</v>
@@ -2686,7 +2686,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>11</v>
@@ -2718,7 +2718,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>11</v>
@@ -2750,7 +2750,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>11</v>
@@ -2782,7 +2782,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>11</v>
@@ -2814,7 +2814,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>11</v>
@@ -2846,7 +2846,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>11</v>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>44</v>
+        <v>457</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>11</v>
@@ -2910,7 +2910,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>11</v>
@@ -2925,7 +2925,7 @@
         <v>261</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G32" s="2">
         <v>9</v>
@@ -2942,7 +2942,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>11</v>
@@ -2974,7 +2974,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>11</v>
@@ -2989,7 +2989,7 @@
         <v>154</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G34" s="2">
         <v>27</v>
@@ -3006,7 +3006,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>11</v>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>51</v>
+        <v>458</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>11</v>
@@ -3070,7 +3070,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>11</v>
@@ -3102,7 +3102,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>11</v>
@@ -3134,7 +3134,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>11</v>
@@ -3166,7 +3166,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>11</v>
@@ -3198,7 +3198,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>11</v>
@@ -3230,7 +3230,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>11</v>
@@ -3262,7 +3262,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>11</v>
@@ -3294,7 +3294,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>11</v>
@@ -3321,12 +3321,12 @@
         <v>747</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>11</v>
@@ -3358,7 +3358,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>11</v>
@@ -3390,7 +3390,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>11</v>
@@ -3422,10 +3422,10 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C48" s="6">
         <v>1216</v>
@@ -3454,10 +3454,10 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C49" s="2">
         <v>996</v>
@@ -3486,10 +3486,10 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C50" s="2">
         <v>746</v>
@@ -3518,7 +3518,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>25</v>
@@ -3527,7 +3527,7 @@
         <v>1418</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E51" s="2">
         <v>1.0249999999999999</v>
@@ -3550,7 +3550,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>25</v>
@@ -3582,7 +3582,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>25</v>
@@ -3614,7 +3614,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>25</v>
@@ -3646,7 +3646,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>25</v>
@@ -3678,7 +3678,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>25</v>
@@ -3710,7 +3710,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>25</v>
@@ -3742,7 +3742,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>25</v>
@@ -3751,7 +3751,7 @@
         <v>695</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E58" s="2">
         <v>685</v>
@@ -3774,7 +3774,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>78</v>
+        <v>459</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>25</v>
@@ -3806,7 +3806,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>25</v>
@@ -3838,7 +3838,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>80</v>
+        <v>460</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>25</v>
@@ -3870,7 +3870,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>25</v>
@@ -3879,7 +3879,7 @@
         <v>637</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E62" s="2">
         <v>746</v>
@@ -3902,7 +3902,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>25</v>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>25</v>
@@ -3966,7 +3966,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>25</v>
@@ -3998,7 +3998,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>25</v>
@@ -4007,7 +4007,7 @@
         <v>631</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E66" s="2">
         <v>466</v>
@@ -4030,7 +4030,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>25</v>
@@ -4062,7 +4062,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>25</v>
@@ -4094,10 +4094,10 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C69" s="3">
         <v>1962</v>
@@ -4126,10 +4126,10 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C70" s="3">
         <v>1557</v>
@@ -4158,10 +4158,10 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C71" s="2">
         <v>666</v>
@@ -4190,10 +4190,10 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C72" s="2">
         <v>595</v>
@@ -4222,16 +4222,16 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C73" s="3">
         <v>1066</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E73" s="2">
         <v>342</v>
@@ -4254,10 +4254,10 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C74" s="3">
         <v>1374</v>
@@ -4286,10 +4286,10 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C75" s="3">
         <v>1231</v>
@@ -4318,10 +4318,10 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C76" s="3">
         <v>1232</v>
@@ -4350,16 +4350,16 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C77" s="3">
         <v>1394</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E77" s="2">
         <v>264</v>
@@ -4382,16 +4382,16 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C78" s="3">
         <v>1234</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E78" s="2">
         <v>346</v>
@@ -4414,10 +4414,10 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C79" s="2">
         <v>491</v>
@@ -4446,10 +4446,10 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C80" s="3">
         <v>1347</v>
@@ -4478,10 +4478,10 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C81" s="2">
         <v>1247</v>
@@ -4510,10 +4510,10 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C82" s="2">
         <v>196</v>
@@ -4542,10 +4542,10 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C83" s="2">
         <v>193</v>
@@ -4574,10 +4574,10 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C84" s="2">
         <v>98</v>
@@ -4606,10 +4606,10 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>110</v>
+        <v>461</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C85" s="2">
         <v>47</v>
@@ -4638,10 +4638,10 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C86" s="2">
         <v>502</v>
@@ -4670,10 +4670,10 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C87" s="3">
         <v>1104</v>
@@ -4702,10 +4702,10 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C88" s="2">
         <v>122</v>
@@ -4734,16 +4734,16 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C89" s="3">
         <v>1346</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E89" s="2">
         <v>131</v>
@@ -4766,10 +4766,10 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C90" s="3">
         <v>1032</v>
@@ -4793,15 +4793,15 @@
         <v>1229</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>118</v>
+        <v>462</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C91" s="2">
         <v>373</v>
@@ -4830,10 +4830,10 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>119</v>
+        <v>463</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C92" s="3">
         <v>1174</v>
@@ -4862,10 +4862,10 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C93" s="3">
         <v>1143</v>
@@ -4894,10 +4894,10 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C94" s="2">
         <v>719</v>
@@ -4926,10 +4926,10 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C95" s="2">
         <v>135</v>
@@ -4958,10 +4958,10 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C96" s="2">
         <v>728</v>
@@ -4990,10 +4990,10 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C97" s="3">
         <v>1134</v>
@@ -5022,10 +5022,10 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C98" s="2">
         <v>693</v>
@@ -5054,10 +5054,10 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C99" s="2">
         <v>2993</v>
@@ -5086,10 +5086,10 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C100" s="2">
         <v>274</v>
@@ -5118,10 +5118,10 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C101" s="2">
         <v>1302</v>
@@ -5150,10 +5150,10 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C102" s="2">
         <v>786</v>
@@ -5182,10 +5182,10 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C103" s="2">
         <v>825</v>
@@ -5214,10 +5214,10 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C104" s="2">
         <v>531</v>
@@ -5235,7 +5235,7 @@
         <v>185</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="I104" s="3">
         <v>1378</v>
@@ -5246,10 +5246,10 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C105" s="2">
         <v>460</v>
@@ -5278,10 +5278,10 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C106" s="2">
         <v>774</v>
@@ -5293,7 +5293,7 @@
         <v>224</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="G106" s="2">
         <v>88</v>
@@ -5310,10 +5310,10 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>137</v>
+        <v>464</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C107" s="2">
         <v>308</v>
@@ -5342,10 +5342,10 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C108" s="2">
         <v>577</v>
@@ -5374,10 +5374,10 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C109" s="2">
         <v>865</v>
@@ -5398,7 +5398,7 @@
         <v>775.62900000000002</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="J109" s="3">
         <v>7572727</v>
@@ -5406,10 +5406,10 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>141</v>
+        <v>465</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C110" s="2">
         <v>413</v>
@@ -5438,10 +5438,10 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>142</v>
+        <v>466</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C111" s="2">
         <v>326</v>
@@ -5470,10 +5470,10 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C112" s="2">
         <v>468</v>
@@ -5502,10 +5502,10 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>144</v>
+        <v>467</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C113" s="2">
         <v>346</v>
@@ -5534,10 +5534,10 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C114" s="2">
         <v>347</v>
@@ -5566,10 +5566,10 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C115" s="2">
         <v>124</v>
@@ -5598,16 +5598,16 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>147</v>
+        <v>468</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C116" s="2">
         <v>370</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E116" s="2">
         <v>549</v>
@@ -5630,10 +5630,10 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C117" s="2">
         <v>189</v>
@@ -5662,22 +5662,22 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C118" s="2">
         <v>930</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="E118" s="2">
         <v>430</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="G118" s="2">
         <v>51</v>
@@ -5689,15 +5689,15 @@
         <v>1.411</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C119" s="2">
         <v>255</v>
@@ -5726,10 +5726,10 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C120" s="2">
         <v>212</v>
@@ -5758,10 +5758,10 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C121" s="2">
         <v>163</v>
@@ -5790,10 +5790,10 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C122" s="2">
         <v>551</v>
@@ -5817,21 +5817,21 @@
         <v>843</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C123" s="2">
         <v>804</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="E123" s="2">
         <v>466</v>
@@ -5854,10 +5854,10 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C124" s="2">
         <v>653</v>
@@ -5881,15 +5881,15 @@
         <v>1351</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C125" s="2">
         <v>139</v>
@@ -5918,10 +5918,10 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C126" s="2">
         <v>458</v>
@@ -5945,15 +5945,15 @@
         <v>638</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>166</v>
+        <v>469</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C127" s="2">
         <v>434</v>
@@ -5982,10 +5982,10 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C128" s="2">
         <v>733</v>
@@ -6006,7 +6006,7 @@
         <v>867153</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="J128" s="3">
         <v>2081453</v>
@@ -6014,16 +6014,16 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C129" s="2">
         <v>515</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="E129" s="2">
         <v>255</v>
@@ -6041,15 +6041,15 @@
         <v>835</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>172</v>
+        <v>470</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C130" s="2">
         <v>447</v>
@@ -6078,10 +6078,10 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C131" s="2">
         <v>450</v>
@@ -6110,10 +6110,10 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C132" s="2">
         <v>90</v>
@@ -6142,10 +6142,10 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C133" s="2">
         <v>134</v>
@@ -6174,10 +6174,10 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="C134" s="3">
         <v>1001</v>
@@ -6195,7 +6195,7 @@
         <v>344</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="I134" s="3">
         <v>2268</v>
@@ -6206,10 +6206,10 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="C135" s="2">
         <v>315</v>
@@ -6238,10 +6238,10 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>179</v>
+        <v>25</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="C136" s="2">
         <v>606</v>
@@ -6270,10 +6270,10 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="C137" s="2">
         <v>739</v>
@@ -6302,10 +6302,10 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="C138" s="2">
         <v>318</v>
@@ -6334,10 +6334,10 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="C139" s="2">
         <v>886</v>
@@ -6366,10 +6366,10 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="C140" s="2">
         <v>21</v>
@@ -6398,10 +6398,10 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="C141" s="2">
         <v>288</v>
@@ -6430,10 +6430,10 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="C142" s="2">
         <v>196</v>
@@ -6457,15 +6457,15 @@
         <v>323</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>187</v>
+        <v>471</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="C143" s="2">
         <v>333</v>
@@ -6494,10 +6494,10 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="C144" s="2">
         <v>465</v>
@@ -6526,10 +6526,10 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="C145" s="2">
         <v>1135</v>
@@ -6558,10 +6558,10 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="C146" s="2">
         <v>262</v>
@@ -6585,15 +6585,15 @@
         <v>396</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="C147" s="2">
         <v>803</v>
@@ -6622,10 +6622,10 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="C148" s="2">
         <v>777</v>
@@ -6654,16 +6654,16 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="C149" s="2">
         <v>707</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="E149" s="2">
         <v>605</v>
@@ -6686,10 +6686,10 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="C150" s="2">
         <v>395</v>
@@ -6718,10 +6718,10 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="C151" s="2">
         <v>697</v>
@@ -6750,10 +6750,10 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="C152" s="2">
         <v>424</v>
@@ -6782,16 +6782,16 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>200</v>
+        <v>472</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="C153" s="2">
         <v>746</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="E153" s="2">
         <v>275</v>
@@ -6814,10 +6814,10 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="C154" s="3">
         <v>1452</v>
@@ -6829,7 +6829,7 @@
         <v>586</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="G154" s="2">
         <v>42</v>
@@ -6846,10 +6846,10 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="C155" s="2">
         <v>387</v>
@@ -6873,15 +6873,15 @@
         <v>576</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="C156" s="2">
         <v>618</v>
@@ -6910,10 +6910,10 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="C157" s="2">
         <v>471</v>
@@ -6925,7 +6925,7 @@
         <v>233</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="G157" s="2">
         <v>25</v>
@@ -6942,10 +6942,10 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="C158" s="2">
         <v>964</v>
@@ -6974,10 +6974,10 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="C159" s="2">
         <v>698</v>
@@ -6989,7 +6989,7 @@
         <v>149</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="G159" s="2">
         <v>7</v>
@@ -7006,16 +7006,16 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>212</v>
+        <v>473</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="C160" s="2">
         <v>1087</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="E160" s="2">
         <v>184</v>
@@ -7038,10 +7038,10 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>214</v>
+        <v>474</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="C161" s="2">
         <v>438</v>
@@ -7053,7 +7053,7 @@
         <v>266</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="G161" s="2">
         <v>2</v>
@@ -7070,10 +7070,10 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="C162" s="2">
         <v>1435</v>
@@ -7102,10 +7102,10 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C163" s="2">
         <v>0</v>
@@ -7134,10 +7134,10 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C164" s="2">
         <v>458</v>
@@ -7166,10 +7166,10 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>220</v>
+        <v>475</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C165" s="2">
         <v>425</v>
@@ -7198,10 +7198,10 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C166" s="2">
         <v>370</v>
@@ -7222,7 +7222,7 @@
         <v>277607</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="J166" s="3">
         <v>2267293</v>
@@ -7230,10 +7230,10 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C167" s="2">
         <v>250</v>
@@ -7257,21 +7257,21 @@
         <v>382</v>
       </c>
       <c r="J167" s="2" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C168" s="3">
         <v>1436</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="E168" s="2">
         <v>160</v>
@@ -7294,10 +7294,10 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C169" s="2">
         <v>437</v>
@@ -7326,10 +7326,10 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C170" s="2">
         <v>1209</v>
@@ -7353,15 +7353,15 @@
         <v>1530</v>
       </c>
       <c r="J170" s="2" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C171" s="2">
         <v>428</v>
@@ -7390,10 +7390,10 @@
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C172" s="2">
         <v>693</v>
@@ -7422,10 +7422,10 @@
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C173" s="2">
         <v>535</v>
@@ -7454,10 +7454,10 @@
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C174" s="2">
         <v>924</v>
@@ -7486,10 +7486,10 @@
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>234</v>
+        <v>476</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C175" s="3">
         <v>1051</v>
@@ -7518,10 +7518,10 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C176" s="2">
         <v>1249</v>
@@ -7550,16 +7550,16 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C177" s="2">
         <v>335</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="E177" s="2">
         <v>294</v>
@@ -7582,10 +7582,10 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C178" s="2">
         <v>391</v>
@@ -7609,15 +7609,15 @@
         <v>608</v>
       </c>
       <c r="J178" s="2" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C179" s="2">
         <v>498</v>
@@ -7646,10 +7646,10 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C180" s="2">
         <v>170</v>
@@ -7678,10 +7678,10 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C181" s="2">
         <v>730</v>
@@ -7710,10 +7710,10 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C182" s="2">
         <v>928</v>
@@ -7742,22 +7742,22 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C183" s="2">
         <v>675</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="E183" s="2">
         <v>304</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="G183" s="2">
         <v>73</v>
@@ -7774,10 +7774,10 @@
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C184" s="2">
         <v>398</v>
@@ -7806,10 +7806,10 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C185" s="2">
         <v>430</v>
@@ -7838,10 +7838,10 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C186" s="2">
         <v>798</v>
@@ -7870,10 +7870,10 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C187" s="2">
         <v>351</v>
@@ -7897,15 +7897,15 @@
         <v>946</v>
       </c>
       <c r="J187" s="2" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C188" s="2">
         <v>177</v>
@@ -7934,10 +7934,10 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C189" s="2">
         <v>772</v>
@@ -7966,16 +7966,16 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C190" s="2">
         <v>472</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="E190" s="2">
         <v>323</v>
@@ -7993,15 +7993,15 @@
         <v>846</v>
       </c>
       <c r="J190" s="2" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C191" s="2">
         <v>370</v>
@@ -8030,10 +8030,10 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C192" s="2">
         <v>425</v>
@@ -8062,10 +8062,10 @@
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C193" s="2">
         <v>383</v>
@@ -8094,10 +8094,10 @@
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C194" s="2">
         <v>834</v>
@@ -8126,10 +8126,10 @@
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C195" s="2">
         <v>350</v>
@@ -8158,16 +8158,16 @@
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>261</v>
+        <v>477</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C196" s="2">
         <v>465</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="E196" s="2">
         <v>137</v>
@@ -8190,10 +8190,10 @@
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>263</v>
+        <v>478</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C197" s="2">
         <v>82</v>
@@ -8222,16 +8222,16 @@
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>264</v>
+        <v>479</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C198" s="2">
         <v>422</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="E198" s="2">
         <v>84</v>
@@ -8249,15 +8249,15 @@
         <v>519</v>
       </c>
       <c r="J198" s="2" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C199" s="2">
         <v>298</v>
@@ -8286,16 +8286,16 @@
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C200" s="2">
         <v>776</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="E200" s="2">
         <v>233</v>
@@ -8318,10 +8318,10 @@
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C201" s="2">
         <v>322</v>
@@ -8350,10 +8350,10 @@
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C202" s="2">
         <v>151</v>
@@ -8382,10 +8382,10 @@
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C203" s="2">
         <v>534</v>
@@ -8414,10 +8414,10 @@
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C204" s="2">
         <v>317</v>
@@ -8446,16 +8446,16 @@
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C205" s="2">
         <v>625</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="E205" s="2">
         <v>106</v>
@@ -8478,16 +8478,16 @@
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C206" s="2">
         <v>513</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="E206" s="2">
         <v>142</v>
@@ -8510,10 +8510,10 @@
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="C207" s="2">
         <v>240</v>
@@ -8542,10 +8542,10 @@
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="C208" s="2">
         <v>189</v>
@@ -8574,10 +8574,10 @@
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="C209" s="3">
         <v>1610</v>
@@ -8606,10 +8606,10 @@
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="C210" s="2">
         <v>632</v>
@@ -8638,10 +8638,10 @@
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="C211" s="2">
         <v>389</v>
@@ -8665,15 +8665,15 @@
         <v>641</v>
       </c>
       <c r="J211" s="2" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="C212" s="2">
         <v>363</v>
@@ -8685,7 +8685,7 @@
         <v>665</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="G212" s="2">
         <v>27</v>
@@ -8702,10 +8702,10 @@
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
-        <v>288</v>
+        <v>480</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="C213" s="2">
         <v>301</v>
@@ -8734,10 +8734,10 @@
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="C214" s="2">
         <v>426</v>
@@ -8766,10 +8766,10 @@
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="C215" s="2">
         <v>625</v>
@@ -8798,10 +8798,10 @@
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="C216" s="2">
         <v>524</v>
@@ -8830,10 +8830,10 @@
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="C217" s="2">
         <v>401</v>
@@ -8862,10 +8862,10 @@
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
-        <v>293</v>
+        <v>496</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="C218" s="2">
         <v>458</v>
@@ -8894,10 +8894,10 @@
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="C219" s="2">
         <v>303</v>
@@ -8926,10 +8926,10 @@
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="C220" s="2">
         <v>666</v>
@@ -8958,10 +8958,10 @@
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="C221" s="2">
         <v>319</v>
@@ -8990,10 +8990,10 @@
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="C222" s="2">
         <v>193</v>
@@ -9022,10 +9022,10 @@
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="C223" s="2">
         <v>472</v>
@@ -9054,10 +9054,10 @@
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="C224" s="2">
         <v>298</v>
@@ -9086,10 +9086,10 @@
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="C225" s="2">
         <v>213</v>
@@ -9118,10 +9118,10 @@
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="C226" s="2">
         <v>567</v>
@@ -9150,10 +9150,10 @@
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="C227" s="2">
         <v>134</v>
@@ -9182,10 +9182,10 @@
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="C228" s="2">
         <v>583</v>
@@ -9214,10 +9214,10 @@
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
-        <v>305</v>
+        <v>481</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="C229" s="2">
         <v>961</v>
@@ -9246,10 +9246,10 @@
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="C230" s="2">
         <v>383</v>
@@ -9261,7 +9261,7 @@
         <v>157</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="G230" s="2">
         <v>10</v>
@@ -9278,10 +9278,10 @@
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="C231" s="2">
         <v>316</v>
@@ -9310,10 +9310,10 @@
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
-        <v>309</v>
+        <v>282</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="C232" s="2">
         <v>398</v>
@@ -9342,10 +9342,10 @@
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
-        <v>310</v>
+        <v>283</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="C233" s="2">
         <v>394</v>
@@ -9374,16 +9374,16 @@
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="C234" s="2">
         <v>711</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="E234" s="2">
         <v>573</v>
@@ -9401,15 +9401,15 @@
         <v>1335</v>
       </c>
       <c r="J234" s="2" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="C235" s="2">
         <v>746</v>
@@ -9438,10 +9438,10 @@
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="C236" s="2">
         <v>883</v>
@@ -9470,10 +9470,10 @@
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
-        <v>316</v>
+        <v>482</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="C237" s="2">
         <v>341</v>
@@ -9502,10 +9502,10 @@
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
-        <v>317</v>
+        <v>289</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="C238" s="2">
         <v>429</v>
@@ -9534,10 +9534,10 @@
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="C239" s="2">
         <v>493</v>
@@ -9566,10 +9566,10 @@
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="C240" s="2">
         <v>262</v>
@@ -9598,10 +9598,10 @@
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
-        <v>320</v>
+        <v>495</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="C241" s="3">
         <v>1176</v>
@@ -9630,10 +9630,10 @@
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="C242" s="3">
         <v>1211</v>
@@ -9662,10 +9662,10 @@
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>323</v>
+        <v>294</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="C243" s="2">
         <v>127</v>
@@ -9694,10 +9694,10 @@
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="C244" s="2">
         <v>342</v>
@@ -9726,10 +9726,10 @@
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="C245" s="2">
         <v>416</v>
@@ -9741,7 +9741,7 @@
         <v>561</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="G245" s="2">
         <v>43</v>
@@ -9758,10 +9758,10 @@
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="C246" s="2">
         <v>382</v>
@@ -9790,10 +9790,10 @@
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="C247" s="2">
         <v>293</v>
@@ -9822,10 +9822,10 @@
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="C248" s="2">
         <v>457</v>
@@ -9854,10 +9854,10 @@
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
-        <v>328</v>
+        <v>483</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="C249" s="2">
         <v>723</v>
@@ -9869,7 +9869,7 @@
         <v>237</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>329</v>
+        <v>299</v>
       </c>
       <c r="G249" s="2">
         <v>0</v>
@@ -9886,16 +9886,16 @@
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="C250" s="2">
         <v>496</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>331</v>
+        <v>301</v>
       </c>
       <c r="E250" s="2">
         <v>840</v>
@@ -9918,10 +9918,10 @@
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
-        <v>332</v>
+        <v>302</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="C251" s="2">
         <v>267</v>
@@ -9950,10 +9950,10 @@
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
-        <v>333</v>
+        <v>303</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="C252" s="3">
         <v>1918</v>
@@ -9971,7 +9971,7 @@
         <v>289</v>
       </c>
       <c r="H252" s="2" t="s">
-        <v>335</v>
+        <v>305</v>
       </c>
       <c r="I252" s="3">
         <v>3372</v>
@@ -9982,16 +9982,16 @@
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
-        <v>336</v>
+        <v>306</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="C253" s="2">
         <v>930</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>337</v>
+        <v>307</v>
       </c>
       <c r="E253" s="2">
         <v>186</v>
@@ -10009,15 +10009,15 @@
         <v>1142</v>
       </c>
       <c r="J253" s="2" t="s">
-        <v>338</v>
+        <v>308</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
-        <v>339</v>
+        <v>309</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="C254" s="2">
         <v>461</v>
@@ -10041,15 +10041,15 @@
         <v>929</v>
       </c>
       <c r="J254" s="2" t="s">
-        <v>340</v>
+        <v>310</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
-        <v>341</v>
+        <v>311</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="C255" s="2">
         <v>832</v>
@@ -10078,16 +10078,16 @@
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
-        <v>342</v>
+        <v>484</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="C256" s="3">
         <v>1277</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>343</v>
+        <v>312</v>
       </c>
       <c r="E256" s="2">
         <v>492</v>
@@ -10110,10 +10110,10 @@
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>344</v>
+        <v>313</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="C257" s="2">
         <v>825</v>
@@ -10142,10 +10142,10 @@
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="C258" s="2">
         <v>541</v>
@@ -10174,16 +10174,16 @@
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
-        <v>346</v>
+        <v>315</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="C259" s="3">
         <v>1278</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="E259" s="2">
         <v>485</v>
@@ -10206,10 +10206,10 @@
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
-        <v>348</v>
+        <v>317</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="C260" s="2">
         <v>916</v>
@@ -10238,10 +10238,10 @@
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
-        <v>349</v>
+        <v>318</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="C261" s="2">
         <v>301</v>
@@ -10270,10 +10270,10 @@
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
-        <v>350</v>
+        <v>319</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="C262" s="3">
         <v>1160</v>
@@ -10302,10 +10302,10 @@
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
-        <v>351</v>
+        <v>320</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="C263" s="3">
         <v>1039</v>
@@ -10334,10 +10334,10 @@
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
-        <v>352</v>
+        <v>321</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="C264" s="2">
         <v>942</v>
@@ -10361,15 +10361,15 @@
         <v>1.8620000000000001</v>
       </c>
       <c r="J264" s="2" t="s">
-        <v>354</v>
+        <v>323</v>
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>355</v>
+        <v>324</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="C265" s="2">
         <v>571</v>
@@ -10398,10 +10398,10 @@
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
-        <v>356</v>
+        <v>325</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="C266" s="2">
         <v>948</v>
@@ -10430,10 +10430,10 @@
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
-        <v>357</v>
+        <v>326</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="C267" s="2">
         <v>348</v>
@@ -10462,10 +10462,10 @@
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
-        <v>358</v>
+        <v>327</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="C268" s="2">
         <v>307</v>
@@ -10494,16 +10494,16 @@
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="C269" s="2">
         <v>462</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="E269" s="2">
         <v>81</v>
@@ -10521,15 +10521,15 @@
         <v>553</v>
       </c>
       <c r="J269" s="2" t="s">
-        <v>361</v>
+        <v>330</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
-        <v>362</v>
+        <v>331</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="C270" s="2">
         <v>414</v>
@@ -10558,10 +10558,10 @@
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
-        <v>363</v>
+        <v>332</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="C271" s="2">
         <v>581</v>
@@ -10590,10 +10590,10 @@
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="C272" s="3">
         <v>1447</v>
@@ -10622,10 +10622,10 @@
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
-        <v>365</v>
+        <v>334</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="C273" s="3">
         <v>1237</v>
@@ -10654,10 +10654,10 @@
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
-        <v>366</v>
+        <v>485</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="C274" s="2">
         <v>307</v>
@@ -10686,10 +10686,10 @@
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
-        <v>367</v>
+        <v>335</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="C275" s="2">
         <v>626</v>
@@ -10718,10 +10718,10 @@
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
-        <v>368</v>
+        <v>336</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="C276" s="2">
         <v>966</v>
@@ -10750,10 +10750,10 @@
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="C277" s="2">
         <v>160</v>
@@ -10782,10 +10782,10 @@
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="C278" s="2">
         <v>1825</v>
@@ -10814,10 +10814,10 @@
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="C279" s="2">
         <v>294</v>
@@ -10846,10 +10846,10 @@
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="C280" s="2">
         <v>823</v>
@@ -10881,7 +10881,7 @@
         <v>25</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="C281" s="2">
         <v>667</v>
@@ -10910,16 +10910,16 @@
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
-        <v>373</v>
+        <v>341</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="C282" s="2">
         <v>580</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>374</v>
+        <v>342</v>
       </c>
       <c r="E282" s="2">
         <v>586</v>
@@ -10942,10 +10942,10 @@
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="C283" s="3">
         <v>1414</v>
@@ -10974,10 +10974,10 @@
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="C284" s="2">
         <v>953</v>
@@ -11006,10 +11006,10 @@
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
-        <v>377</v>
+        <v>345</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="C285" s="2">
         <v>482</v>
@@ -11038,10 +11038,10 @@
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
-        <v>378</v>
+        <v>494</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="C286" s="2">
         <v>699</v>
@@ -11070,16 +11070,16 @@
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
-        <v>379</v>
+        <v>346</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="C287" s="2">
         <v>576</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>380</v>
+        <v>347</v>
       </c>
       <c r="E287" s="2">
         <v>228</v>
@@ -11102,10 +11102,10 @@
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
-        <v>381</v>
+        <v>348</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="C288" s="2">
         <v>1889</v>
@@ -11134,10 +11134,10 @@
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
-        <v>382</v>
+        <v>349</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="C289" s="2">
         <v>577</v>
@@ -11166,10 +11166,10 @@
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
-        <v>383</v>
+        <v>350</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="C290" s="2">
         <v>380</v>
@@ -11198,10 +11198,10 @@
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
-        <v>384</v>
+        <v>351</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="C291" s="2">
         <v>575</v>
@@ -11230,16 +11230,16 @@
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="C292" s="2">
         <v>981</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="E292" s="2">
         <v>123</v>
@@ -11262,10 +11262,10 @@
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="C293" s="2">
         <v>773</v>
@@ -11294,16 +11294,16 @@
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="C294" s="2">
         <v>676</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>389</v>
+        <v>356</v>
       </c>
       <c r="E294" s="2">
         <v>203</v>
@@ -11326,10 +11326,10 @@
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
-        <v>390</v>
+        <v>357</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="C295" s="2">
         <v>819</v>
@@ -11358,10 +11358,10 @@
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
-        <v>391</v>
+        <v>358</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="C296" s="2">
         <v>298</v>
@@ -11390,10 +11390,10 @@
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
-        <v>392</v>
+        <v>359</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="C297" s="3">
         <v>1061</v>
@@ -11422,10 +11422,10 @@
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
-        <v>393</v>
+        <v>360</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="C298" s="3">
         <v>1339</v>
@@ -11454,10 +11454,10 @@
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
-        <v>394</v>
+        <v>361</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="C299" s="2">
         <v>894</v>
@@ -11475,7 +11475,7 @@
         <v>82</v>
       </c>
       <c r="H299" s="2" t="s">
-        <v>395</v>
+        <v>362</v>
       </c>
       <c r="I299" s="3">
         <v>1553</v>
@@ -11486,10 +11486,10 @@
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
-        <v>396</v>
+        <v>363</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="C300" s="2">
         <v>673</v>
@@ -11518,10 +11518,10 @@
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
-        <v>397</v>
+        <v>364</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="C301" s="2">
         <v>996</v>
@@ -11550,10 +11550,10 @@
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="C302" s="2">
         <v>529</v>
@@ -11582,10 +11582,10 @@
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
-        <v>398</v>
+        <v>365</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="C303" s="2">
         <v>205</v>
@@ -11614,10 +11614,10 @@
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
-        <v>399</v>
+        <v>366</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="C304" s="2">
         <v>795</v>
@@ -11646,10 +11646,10 @@
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
-        <v>400</v>
+        <v>487</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="C305" s="2">
         <v>461</v>
@@ -11678,10 +11678,10 @@
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
-        <v>401</v>
+        <v>367</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="C306" s="2">
         <v>189</v>
@@ -11705,15 +11705,15 @@
         <v>373</v>
       </c>
       <c r="J306" s="2" t="s">
-        <v>402</v>
+        <v>368</v>
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
-        <v>403</v>
+        <v>369</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="C307" s="2">
         <v>826</v>
@@ -11742,10 +11742,10 @@
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
-        <v>405</v>
+        <v>371</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="C308" s="2">
         <v>150</v>
@@ -11774,10 +11774,10 @@
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
-        <v>406</v>
+        <v>372</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="C309" s="2">
         <v>222</v>
@@ -11806,10 +11806,10 @@
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
-        <v>407</v>
+        <v>373</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="C310" s="2">
         <v>230</v>
@@ -11838,10 +11838,10 @@
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
-        <v>408</v>
+        <v>374</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="C311" s="2">
         <v>240</v>
@@ -11853,7 +11853,7 @@
         <v>375</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>409</v>
+        <v>375</v>
       </c>
       <c r="G311" s="2">
         <v>3</v>
@@ -11870,10 +11870,10 @@
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="C312" s="2">
         <v>297</v>
@@ -11902,10 +11902,10 @@
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
-        <v>411</v>
+        <v>377</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="C313" s="2">
         <v>347</v>
@@ -11934,10 +11934,10 @@
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
-        <v>412</v>
+        <v>378</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="C314" s="2">
         <v>233</v>
@@ -11966,10 +11966,10 @@
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
-        <v>413</v>
+        <v>379</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="C315" s="2">
         <v>1605</v>
@@ -11998,10 +11998,10 @@
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
-        <v>414</v>
+        <v>380</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="C316" s="2">
         <v>182</v>
@@ -12030,10 +12030,10 @@
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
-        <v>415</v>
+        <v>486</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="C317" s="2">
         <v>967</v>
@@ -12051,7 +12051,7 @@
         <v>350</v>
       </c>
       <c r="H317" s="2" t="s">
-        <v>416</v>
+        <v>381</v>
       </c>
       <c r="I317" s="3">
         <v>1631</v>
@@ -12062,10 +12062,10 @@
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="C318" s="2">
         <v>160</v>
@@ -12094,10 +12094,10 @@
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
-        <v>418</v>
+        <v>383</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="C319" s="2">
         <v>401</v>
@@ -12126,10 +12126,10 @@
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
-        <v>419</v>
+        <v>488</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="C320" s="2">
         <v>1861</v>
@@ -12158,10 +12158,10 @@
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
-        <v>420</v>
+        <v>384</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="C321" s="2">
         <v>235</v>
@@ -12190,10 +12190,10 @@
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A322" s="2" t="s">
-        <v>421</v>
+        <v>385</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="C322" s="2">
         <v>124</v>
@@ -12222,10 +12222,10 @@
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="s">
-        <v>422</v>
+        <v>386</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="C323" s="2">
         <v>668</v>
@@ -12254,10 +12254,10 @@
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A324" s="2" t="s">
-        <v>423</v>
+        <v>387</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="C324" s="2">
         <v>104</v>
@@ -12286,10 +12286,10 @@
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
-        <v>424</v>
+        <v>388</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="C325" s="2">
         <v>913</v>
@@ -12301,7 +12301,7 @@
         <v>749</v>
       </c>
       <c r="F325" s="2" t="s">
-        <v>425</v>
+        <v>389</v>
       </c>
       <c r="G325" s="2">
         <v>198</v>
@@ -12318,10 +12318,10 @@
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A326" s="2" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="C326" s="2">
         <v>126</v>
@@ -12350,10 +12350,10 @@
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
-        <v>427</v>
+        <v>391</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="C327" s="2">
         <v>194</v>
@@ -12382,10 +12382,10 @@
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
-        <v>428</v>
+        <v>392</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="C328" s="2">
         <v>648</v>
@@ -12409,15 +12409,15 @@
         <v>881</v>
       </c>
       <c r="J328" s="2" t="s">
-        <v>429</v>
+        <v>393</v>
       </c>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
-        <v>430</v>
+        <v>394</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="C329" s="2">
         <v>570</v>
@@ -12446,10 +12446,10 @@
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A330" s="2" t="s">
-        <v>431</v>
+        <v>395</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="C330" s="2">
         <v>356</v>
@@ -12478,10 +12478,10 @@
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A331" s="2" t="s">
-        <v>432</v>
+        <v>396</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="C331" s="3">
         <v>1012</v>
@@ -12510,10 +12510,10 @@
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A332" s="2" t="s">
-        <v>433</v>
+        <v>397</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="C332" s="2">
         <v>88</v>
@@ -12542,10 +12542,10 @@
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A333" s="2" t="s">
-        <v>434</v>
+        <v>398</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="C333" s="2">
         <v>706</v>
@@ -12574,10 +12574,10 @@
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A334" s="2" t="s">
-        <v>435</v>
+        <v>399</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="C334" s="2">
         <v>393</v>
@@ -12601,15 +12601,15 @@
         <v>672</v>
       </c>
       <c r="J334" s="2" t="s">
-        <v>436</v>
+        <v>400</v>
       </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A335" s="2" t="s">
-        <v>437</v>
+        <v>489</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="C335" s="2">
         <v>899</v>
@@ -12638,10 +12638,10 @@
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A336" s="2" t="s">
-        <v>438</v>
+        <v>401</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="C336" s="2">
         <v>123</v>
@@ -12670,10 +12670,10 @@
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A337" s="2" t="s">
-        <v>439</v>
+        <v>402</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="C337" s="2">
         <v>285</v>
@@ -12702,10 +12702,10 @@
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="s">
-        <v>440</v>
+        <v>403</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="C338" s="2">
         <v>259</v>
@@ -12734,10 +12734,10 @@
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A339" s="2" t="s">
-        <v>441</v>
+        <v>490</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="C339" s="2">
         <v>360</v>
@@ -12766,10 +12766,10 @@
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340" s="2" t="s">
-        <v>442</v>
+        <v>404</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>443</v>
+        <v>405</v>
       </c>
       <c r="C340" s="2">
         <v>863</v>
@@ -12787,7 +12787,7 @@
         <v>376</v>
       </c>
       <c r="H340" s="2" t="s">
-        <v>444</v>
+        <v>406</v>
       </c>
       <c r="I340" s="3">
         <v>2246</v>
@@ -12801,7 +12801,7 @@
         <v>25</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>443</v>
+        <v>405</v>
       </c>
       <c r="C341" s="2">
         <v>269</v>
@@ -12830,10 +12830,10 @@
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342" s="2" t="s">
-        <v>445</v>
+        <v>407</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>443</v>
+        <v>405</v>
       </c>
       <c r="C342" s="2">
         <v>117</v>
@@ -12862,16 +12862,16 @@
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
-        <v>446</v>
+        <v>408</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>443</v>
+        <v>405</v>
       </c>
       <c r="C343" s="2">
         <v>534</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>447</v>
+        <v>409</v>
       </c>
       <c r="E343" s="2">
         <v>724</v>
@@ -12894,10 +12894,10 @@
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A344" s="2" t="s">
-        <v>448</v>
+        <v>410</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>443</v>
+        <v>405</v>
       </c>
       <c r="C344" s="2">
         <v>221</v>
@@ -12926,10 +12926,10 @@
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="s">
-        <v>449</v>
+        <v>411</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>443</v>
+        <v>405</v>
       </c>
       <c r="C345" s="2">
         <v>523</v>
@@ -12958,10 +12958,10 @@
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A346" s="2" t="s">
-        <v>450</v>
+        <v>412</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>443</v>
+        <v>405</v>
       </c>
       <c r="C346" s="2">
         <v>332</v>
@@ -12990,10 +12990,10 @@
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A347" s="2" t="s">
-        <v>451</v>
+        <v>413</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>443</v>
+        <v>405</v>
       </c>
       <c r="C347" s="2">
         <v>101</v>
@@ -13022,10 +13022,10 @@
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
-        <v>452</v>
+        <v>492</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>443</v>
+        <v>405</v>
       </c>
       <c r="C348" s="2">
         <v>324</v>
@@ -13054,10 +13054,10 @@
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349" s="2" t="s">
-        <v>453</v>
+        <v>491</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>443</v>
+        <v>405</v>
       </c>
       <c r="C349" s="2">
         <v>274</v>
@@ -13069,7 +13069,7 @@
         <v>158</v>
       </c>
       <c r="F349" s="2" t="s">
-        <v>454</v>
+        <v>414</v>
       </c>
       <c r="G349" s="2">
         <v>142</v>
@@ -13086,10 +13086,10 @@
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A350" s="2" t="s">
-        <v>455</v>
+        <v>415</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>443</v>
+        <v>405</v>
       </c>
       <c r="C350" s="2">
         <v>520</v>
@@ -13107,7 +13107,7 @@
         <v>280</v>
       </c>
       <c r="H350" s="2" t="s">
-        <v>456</v>
+        <v>416</v>
       </c>
       <c r="I350" s="3">
         <v>1310</v>
@@ -13118,10 +13118,10 @@
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>443</v>
+        <v>405</v>
       </c>
       <c r="C351" s="2">
         <v>234</v>
@@ -13150,10 +13150,10 @@
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A352" s="2" t="s">
-        <v>458</v>
+        <v>418</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>443</v>
+        <v>405</v>
       </c>
       <c r="C352" s="2">
         <v>379</v>
@@ -13182,10 +13182,10 @@
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A353" s="2" t="s">
-        <v>459</v>
+        <v>419</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>443</v>
+        <v>405</v>
       </c>
       <c r="C353" s="2">
         <v>390</v>
@@ -13214,10 +13214,10 @@
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A354" s="2" t="s">
-        <v>460</v>
+        <v>420</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>443</v>
+        <v>405</v>
       </c>
       <c r="C354" s="2">
         <v>419</v>
@@ -13235,7 +13235,7 @@
         <v>226</v>
       </c>
       <c r="H354" s="2" t="s">
-        <v>461</v>
+        <v>421</v>
       </c>
       <c r="I354" s="3">
         <v>1191</v>
@@ -13246,10 +13246,10 @@
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A355" s="2" t="s">
-        <v>462</v>
+        <v>422</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>443</v>
+        <v>405</v>
       </c>
       <c r="C355" s="2">
         <v>207</v>
@@ -13273,15 +13273,15 @@
         <v>425</v>
       </c>
       <c r="J355" s="2" t="s">
-        <v>463</v>
+        <v>423</v>
       </c>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A356" s="2" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>443</v>
+        <v>405</v>
       </c>
       <c r="C356" s="2">
         <v>437</v>
@@ -13310,10 +13310,10 @@
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A357" s="2" t="s">
-        <v>465</v>
+        <v>425</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>443</v>
+        <v>405</v>
       </c>
       <c r="C357" s="2">
         <v>133</v>
@@ -13342,10 +13342,10 @@
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A358" s="2" t="s">
-        <v>466</v>
+        <v>426</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>466</v>
+        <v>426</v>
       </c>
       <c r="C358" s="2">
         <v>71</v>
@@ -13374,10 +13374,10 @@
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
-        <v>467</v>
+        <v>427</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>466</v>
+        <v>426</v>
       </c>
       <c r="C359" s="2">
         <v>9</v>
@@ -13406,10 +13406,10 @@
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A360" s="2" t="s">
-        <v>468</v>
+        <v>428</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>466</v>
+        <v>426</v>
       </c>
       <c r="C360" s="2">
         <v>198</v>
@@ -13421,7 +13421,7 @@
         <v>609</v>
       </c>
       <c r="F360" s="2" t="s">
-        <v>469</v>
+        <v>429</v>
       </c>
       <c r="G360" s="2">
         <v>4</v>
@@ -13438,10 +13438,10 @@
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A361" s="2" t="s">
-        <v>470</v>
+        <v>430</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>471</v>
+        <v>431</v>
       </c>
       <c r="C361" s="2">
         <v>1920</v>
@@ -13450,7 +13450,7 @@
         <v>3096903</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>496</v>
+        <v>455</v>
       </c>
       <c r="F361" s="4">
         <v>5261.3419999999996</v>
@@ -13470,10 +13470,10 @@
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A362" s="2" t="s">
-        <v>472</v>
+        <v>432</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>471</v>
+        <v>431</v>
       </c>
       <c r="C362" s="2">
         <v>757</v>
@@ -13502,10 +13502,10 @@
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A363" s="2" t="s">
-        <v>473</v>
+        <v>433</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>471</v>
+        <v>431</v>
       </c>
       <c r="C363" s="2">
         <v>406</v>
@@ -13534,10 +13534,10 @@
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A364" s="2" t="s">
-        <v>474</v>
+        <v>434</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>471</v>
+        <v>431</v>
       </c>
       <c r="C364" s="2">
         <v>393</v>
@@ -13566,10 +13566,10 @@
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A365" s="2" t="s">
-        <v>475</v>
+        <v>435</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>471</v>
+        <v>431</v>
       </c>
       <c r="C365" s="2">
         <v>325</v>
@@ -13598,10 +13598,10 @@
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A366" s="2" t="s">
-        <v>476</v>
+        <v>436</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>477</v>
+        <v>437</v>
       </c>
       <c r="C366" s="2">
         <v>297</v>
@@ -13630,10 +13630,10 @@
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A367" s="2" t="s">
-        <v>478</v>
+        <v>438</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>477</v>
+        <v>437</v>
       </c>
       <c r="C367" s="2">
         <v>310</v>
@@ -13662,10 +13662,10 @@
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A368" s="2" t="s">
-        <v>479</v>
+        <v>439</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>477</v>
+        <v>437</v>
       </c>
       <c r="C368" s="2">
         <v>406</v>
@@ -13694,16 +13694,16 @@
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A369" s="2" t="s">
-        <v>480</v>
+        <v>440</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>477</v>
+        <v>437</v>
       </c>
       <c r="C369" s="2">
         <v>529</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>481</v>
+        <v>441</v>
       </c>
       <c r="E369" s="2">
         <v>472</v>
@@ -13726,16 +13726,16 @@
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A370" s="2" t="s">
-        <v>482</v>
+        <v>442</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>477</v>
+        <v>437</v>
       </c>
       <c r="C370" s="2">
         <v>692</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>483</v>
+        <v>443</v>
       </c>
       <c r="E370" s="2">
         <v>317</v>
@@ -13758,10 +13758,10 @@
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A371" s="2" t="s">
-        <v>392</v>
+        <v>359</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>484</v>
+        <v>444</v>
       </c>
       <c r="C371" s="2">
         <v>87</v>
@@ -13790,10 +13790,10 @@
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A372" s="2" t="s">
-        <v>485</v>
+        <v>445</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>486</v>
+        <v>446</v>
       </c>
       <c r="C372" s="2">
         <v>141</v>
@@ -13822,10 +13822,10 @@
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A373" s="2" t="s">
-        <v>487</v>
+        <v>447</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>488</v>
+        <v>448</v>
       </c>
       <c r="C373" s="2">
         <v>191</v>
@@ -13854,10 +13854,10 @@
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A374" s="2" t="s">
-        <v>489</v>
+        <v>449</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>488</v>
+        <v>448</v>
       </c>
       <c r="C374" s="2">
         <v>96</v>
@@ -13886,10 +13886,10 @@
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A375" s="2" t="s">
-        <v>490</v>
+        <v>450</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>488</v>
+        <v>448</v>
       </c>
       <c r="C375" s="2">
         <v>159</v>
@@ -13913,15 +13913,15 @@
         <v>594</v>
       </c>
       <c r="J375" s="2" t="s">
-        <v>491</v>
+        <v>451</v>
       </c>
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A376" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>493</v>
+        <v>452</v>
       </c>
       <c r="C376" s="2">
         <v>42</v>
@@ -13950,10 +13950,10 @@
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A377" s="2" t="s">
-        <v>494</v>
+        <v>453</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>495</v>
+        <v>454</v>
       </c>
       <c r="C377" s="2">
         <v>32</v>
